--- a/data/trans_bre/P57_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P57_R-Provincia-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>1.195370979913724</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.8214637733615082</v>
+        <v>0.8214637733615069</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>0.04002924592078773</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.1471160273432995</v>
+        <v>0.1471160273432992</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.561557247444356</v>
+        <v>-6.787611763698161</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.352899471548077</v>
+        <v>-2.513415842122212</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.2214577453983944</v>
+        <v>-0.2009123288805151</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.3229415437141737</v>
+        <v>-0.3406101141084306</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.861645391921</v>
+        <v>9.04230113999024</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.788303698336096</v>
+        <v>3.735190756036209</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.3439842045159146</v>
+        <v>0.3529212447918318</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.007612746808379</v>
+        <v>0.9320862606395045</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>0.4232808308294755</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.4940193273662123</v>
+        <v>0.4940193273662109</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.02938845548712917</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.08949675812887524</v>
+        <v>0.08949675812887499</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-4.062373987426367</v>
+        <v>-4.343219665964073</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.075722548838018</v>
+        <v>-3.069268184534217</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2371821881407882</v>
+        <v>-0.2706999978136275</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3907680415640899</v>
+        <v>-0.374761312686142</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.027916338330309</v>
+        <v>4.728088716073599</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.991793337661364</v>
+        <v>3.325435272560935</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.4144244893143919</v>
+        <v>0.3771313823665001</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7861166633787554</v>
+        <v>0.9325687283086473</v>
       </c>
     </row>
     <row r="10">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.699540252623058</v>
+        <v>1.899123000617582</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.356939836372572</v>
+        <v>-5.14826304797502</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.1499759756184994</v>
+        <v>0.1563446830380907</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.2250878517341105</v>
+        <v>-0.2194787758623929</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.89129323491481</v>
+        <v>11.63052398378355</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.04593973135358</v>
+        <v>5.278493477848908</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>1.756719470108779</v>
+        <v>1.789859354760401</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.2894229148043095</v>
+        <v>0.3098846142202057</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>12.13354631954479</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.6453013130918062</v>
+        <v>0.6453013130918075</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.7643746553155371</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.05432215216227923</v>
+        <v>0.05432215216227934</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>5.779682900410716</v>
+        <v>6.026715822709589</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.225115223605018</v>
+        <v>-4.328232359560719</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3019989227372016</v>
+        <v>0.3178251132912447</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2848922450093208</v>
+        <v>-0.2908846353802497</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>18.65913356875917</v>
+        <v>18.60375170373122</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.099266346874523</v>
+        <v>5.547906871729528</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.431500793601443</v>
+        <v>1.466609379251822</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.7469025913779912</v>
+        <v>0.6249018119127916</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>7.171766562710719</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1.557966179704122</v>
+        <v>1.557966179704126</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>0.2088746325456363</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.2208769913940525</v>
+        <v>0.2208769913940532</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.986401148715328</v>
+        <v>-2.488720943336847</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.384325521650742</v>
+        <v>-2.168683407274454</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.05529746586064655</v>
+        <v>-0.06612996460636281</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.2657023858913526</v>
+        <v>-0.2516158668266623</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>16.84810025764172</v>
+        <v>15.66788408732084</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.168038577107029</v>
+        <v>5.279257262945293</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.5739806026502663</v>
+        <v>0.5349641436162579</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1.020258610657186</v>
+        <v>1.058383669930334</v>
       </c>
     </row>
     <row r="19">
@@ -912,13 +912,13 @@
         <v>2.992605718404806</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.6695988119802182</v>
+        <v>0.6695988119802126</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.1609787897018822</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.03003687819090992</v>
+        <v>0.03003687819090967</v>
       </c>
     </row>
     <row r="20">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-3.966910526757579</v>
+        <v>-3.978682469698098</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-5.317649677156195</v>
+        <v>-5.548076633152588</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1765343664306201</v>
+        <v>-0.1793175389059978</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2070587736614141</v>
+        <v>-0.2107252518893468</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>10.40560799150892</v>
+        <v>10.05712484642243</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>6.532286855236419</v>
+        <v>6.091425122077354</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.7138487776201088</v>
+        <v>0.7045071589303817</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3452339065668326</v>
+        <v>0.318828579111096</v>
       </c>
     </row>
     <row r="22">
@@ -976,13 +976,13 @@
         <v>4.428686006710175</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>3.745575874469477</v>
+        <v>3.745575874469474</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0.271120205032611</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>0.3960297912531187</v>
+        <v>0.3960297912531184</v>
       </c>
     </row>
     <row r="23">
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.08329736198585402</v>
+        <v>0.1424549958726716</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.146315199760962</v>
+        <v>0.4597244137652571</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>0.004233119694339723</v>
+        <v>0.008022810734157122</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.01170202718391116</v>
+        <v>0.03458773356548468</v>
       </c>
     </row>
     <row r="24">
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.522240876579312</v>
+        <v>8.732874253914186</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.95045407104614</v>
+        <v>6.761116278317491</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>0.6162534917522715</v>
+        <v>0.6143338841962891</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.9115149616629237</v>
+        <v>0.8480111528054673</v>
       </c>
     </row>
     <row r="25">
@@ -1040,13 +1040,13 @@
         <v>5.725942657218694</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>12.32513101845861</v>
+        <v>12.32513101845863</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>0.2898415261368078</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.5633378170354729</v>
+        <v>0.5633378170354736</v>
       </c>
     </row>
     <row r="26">
@@ -1057,16 +1057,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.385059817988883</v>
+        <v>1.417764107781012</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>8.54699596200159</v>
+        <v>7.709735282666447</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.067455686154457</v>
+        <v>0.06463371956940692</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.3467263604794443</v>
+        <v>0.3046801685306261</v>
       </c>
     </row>
     <row r="27">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>9.694061050215938</v>
+        <v>10.01402862100501</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>16.46937319786051</v>
+        <v>16.18526216196373</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.5446543600219971</v>
+        <v>0.5591119551232682</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.8294079048955113</v>
+        <v>0.8166057544151488</v>
       </c>
     </row>
     <row r="28">
@@ -1104,13 +1104,13 @@
         <v>4.946510199818569</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>3.893990672901262</v>
+        <v>3.893990672901265</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>0.2670981561469967</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>0.290666194610063</v>
+        <v>0.2906661946100632</v>
       </c>
     </row>
     <row r="29">
@@ -1121,16 +1121,16 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.813686944952085</v>
+        <v>3.034440736228122</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.274358369224305</v>
+        <v>2.272260379409626</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>0.1432535460725199</v>
+        <v>0.1551134223475923</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>0.1607019873916282</v>
+        <v>0.1640968160831307</v>
       </c>
     </row>
     <row r="30">
@@ -1141,16 +1141,16 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>7.012793117179328</v>
+        <v>7.056081778334086</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.36039126589773</v>
+        <v>5.400147911213102</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>0.4003372753326987</v>
+        <v>0.4025077309879963</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>0.4236579760968331</v>
+        <v>0.4304855924093601</v>
       </c>
     </row>
     <row r="31">
